--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/4.3_Student_Answer_opt2.xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/4.3_Student_Answer_opt2.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SakshiV\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neelu_singh\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96A9594-75A3-491F-9C80-37A65AFFE883}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A7C0BD-CAF6-4A78-998D-882EF967FD49}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11325" tabRatio="898" xr2:uid="{CDDB8127-8CCC-481C-BAE9-D13AC6387C88}"/>
   </bookViews>
   <sheets>
-    <sheet name="4.3_Student_Answer_opt2" sheetId="1" r:id="rId1"/>
+    <sheet name="1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -796,7 +796,7 @@
   <dimension ref="A1:F114"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1896,17 +1896,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="A50:F50"/>
     <mergeCell ref="A110:F110"/>
     <mergeCell ref="A62:F62"/>
     <mergeCell ref="A70:F70"/>
     <mergeCell ref="A83:F83"/>
     <mergeCell ref="A92:F92"/>
     <mergeCell ref="A102:F102"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="A50:F50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/4.3_Student_Answer_opt2.xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/4.3_Student_Answer_opt2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neelu_singh\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SakshiV\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A7C0BD-CAF6-4A78-998D-882EF967FD49}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9612BB0-A1BD-4AC7-A146-47C3B4DE6E8E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11325" tabRatio="898" xr2:uid="{CDDB8127-8CCC-481C-BAE9-D13AC6387C88}"/>
   </bookViews>
@@ -102,17 +102,17 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -124,12 +124,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFDC689"/>
         <bgColor theme="8"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -139,16 +139,145 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
+        <color rgb="FFD9D9D9"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
+        <color rgb="FFD9D9D9"/>
       </right>
       <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
+        <color rgb="FFD9D9D9"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
+        <color rgb="FFD9D9D9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFE1A16C"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFE1A16C"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFE1A16C"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFE1A16C"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFE1A16C"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFE1A16C"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFE1A16C"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFE1A16C"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFE1A16C"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFE1A16C"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFE1A16C"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFE1A16C"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFE1A16C"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFE1A16C"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFE1A16C"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFE1A16C"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFE1A16C"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFE1A16C"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFE1A16C"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFE1A16C"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFE1A16C"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFE1A16C"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFE1A16C"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFE1A16C"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD9D9D9"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFE1A16C"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD9D9D9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD9D9D9"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD9D9D9"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFE1A16C"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD9D9D9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFD9D9D9"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFD9D9D9"/>
       </bottom>
       <diagonal/>
     </border>
@@ -158,17 +287,8 @@
         <color theme="0" tint="-0.249977111117893"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top/>
       <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
+        <color rgb="FFD9D9D9"/>
       </bottom>
       <diagonal/>
     </border>
@@ -181,7 +301,7 @@
       </right>
       <top/>
       <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
+        <color rgb="FFD9D9D9"/>
       </bottom>
       <diagonal/>
     </border>
@@ -190,48 +310,37 @@
         <color theme="0" tint="-0.249977111117893"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
+        <color rgb="FFD9D9D9"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
+        <color rgb="FFD9D9D9"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
+        <color rgb="FFD9D9D9"/>
       </left>
-      <right style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </right>
+      <right/>
       <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
+        <color rgb="FFD9D9D9"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
+        <color rgb="FFD9D9D9"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
+      <left style="thin">
+        <color rgb="FFD9D9D9"/>
+      </left>
+      <right style="thin">
         <color theme="0" tint="-0.249977111117893"/>
-      </top>
+      </right>
+      <top/>
       <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
+        <color rgb="FFD9D9D9"/>
       </bottom>
       <diagonal/>
     </border>
@@ -243,32 +352,8 @@
         <color theme="0" tint="-0.14999847407452621"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </right>
-      <top/>
       <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
+        <color rgb="FFD9D9D9"/>
       </bottom>
       <diagonal/>
     </border>
@@ -279,68 +364,27 @@
       </right>
       <top/>
       <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
+        <color rgb="FFD9D9D9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFD9D9D9"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="FFD9D9D9"/>
       </left>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
+        <color rgb="FFD9D9D9"/>
       </bottom>
       <diagonal/>
     </border>
@@ -348,14 +392,41 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -363,120 +434,84 @@
       <alignment horizontal="right" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -485,6 +520,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFD9D9D9"/>
+      <color rgb="FFE1A16C"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -802,1095 +843,1105 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="5" width="12.7109375" style="6" customWidth="1"/>
+    <col min="4" max="5" width="12.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-    </row>
-    <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="40"/>
+    </row>
+    <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
+      <c r="A3" s="29">
         <v>42916</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="11">
+      <c r="B3" s="22"/>
+      <c r="C3" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="30"/>
+      <c r="E3" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="31">
         <v>3750</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
+      <c r="A4" s="6">
         <v>42916</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="16">
+      <c r="B4" s="7"/>
+      <c r="C4" s="8">
         <v>1200</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="15">
+      <c r="D4" s="9"/>
+      <c r="E4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="7">
         <v>2550</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
+      <c r="A5" s="6">
         <v>42916</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="20">
+      <c r="B5" s="7"/>
+      <c r="C5" s="8">
         <v>220</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="19">
+      <c r="D5" s="9"/>
+      <c r="E5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="7">
         <v>2330</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
+      <c r="A6" s="6">
         <v>42916</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="16">
+      <c r="B6" s="7"/>
+      <c r="C6" s="8">
         <v>175</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="22">
+      <c r="D6" s="9"/>
+      <c r="E6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="7">
         <v>2155</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
+      <c r="A7" s="6">
         <v>42916</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="20">
+      <c r="B7" s="7"/>
+      <c r="C7" s="8">
         <v>50</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="19">
+      <c r="D7" s="9"/>
+      <c r="E7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="7">
         <v>2105</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="24">
+      <c r="A8" s="6">
         <v>42916</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12">
+      <c r="B8" s="7"/>
+      <c r="C8" s="8">
         <v>700</v>
       </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="11">
+      <c r="D8" s="9"/>
+      <c r="E8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="7">
         <v>1405</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="5"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="11"/>
     </row>
     <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="5"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="11"/>
     </row>
     <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="5"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="11"/>
     </row>
     <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="5"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="11"/>
     </row>
     <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="5"/>
-    </row>
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="11"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="43" t="s">
+      <c r="A18" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="43"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-    </row>
-    <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="40"/>
+    </row>
+    <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F19" s="1" t="s">
+      <c r="C19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10">
+      <c r="A20" s="29">
         <v>42892</v>
       </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="26">
+      <c r="B20" s="22"/>
+      <c r="C20" s="32">
         <v>250</v>
       </c>
-      <c r="D20" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="14">
+      <c r="D20" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="25">
         <v>250</v>
       </c>
-      <c r="F20" s="5"/>
+      <c r="F20" s="26"/>
     </row>
     <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10">
+      <c r="A21" s="6">
         <v>42895</v>
       </c>
-      <c r="B21" s="15"/>
-      <c r="C21" s="27">
+      <c r="B21" s="7"/>
+      <c r="C21" s="7">
         <v>450</v>
       </c>
-      <c r="D21" s="27"/>
-      <c r="E21" s="18">
+      <c r="D21" s="7"/>
+      <c r="E21" s="6">
         <v>700</v>
       </c>
-      <c r="F21" s="5"/>
+      <c r="F21" s="11"/>
     </row>
     <row r="22" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="10">
+      <c r="A22" s="6">
         <v>42906</v>
       </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7">
         <v>250</v>
       </c>
-      <c r="E22" s="21">
+      <c r="E22" s="6">
         <v>450</v>
       </c>
-      <c r="F22" s="5"/>
+      <c r="F22" s="11"/>
     </row>
     <row r="23" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="10">
+      <c r="A23" s="6">
         <v>42910</v>
       </c>
-      <c r="B23" s="22"/>
-      <c r="C23" s="26">
+      <c r="B23" s="7"/>
+      <c r="C23" s="7">
         <v>750</v>
       </c>
-      <c r="D23" s="26"/>
-      <c r="E23" s="23">
+      <c r="D23" s="7"/>
+      <c r="E23" s="6">
         <v>1200</v>
       </c>
-      <c r="F23" s="5"/>
+      <c r="F23" s="11"/>
     </row>
     <row r="24" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10">
+      <c r="A24" s="6">
         <v>42915</v>
       </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19">
+      <c r="B24" s="7"/>
+      <c r="C24" s="7">
         <v>1600</v>
       </c>
-      <c r="D24" s="19"/>
-      <c r="E24" s="10">
+      <c r="D24" s="7"/>
+      <c r="E24" s="6">
         <v>2800</v>
       </c>
-      <c r="F24" s="5"/>
-    </row>
+      <c r="F24" s="11"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="43" t="s">
+      <c r="A29" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="43"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="43"/>
-    </row>
-    <row r="30" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="40"/>
+    </row>
+    <row r="30" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F30" s="1" t="s">
+      <c r="C30" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F30" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="10">
+      <c r="A31" s="29">
         <v>42888</v>
       </c>
-      <c r="B31" s="11"/>
-      <c r="C31" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D31" s="26">
+      <c r="B31" s="22"/>
+      <c r="C31" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="32">
         <v>150</v>
       </c>
-      <c r="E31" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="F31" s="11">
+      <c r="E31" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" s="31">
         <v>150</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="10">
+      <c r="A32" s="6">
         <v>42894</v>
       </c>
-      <c r="B32" s="15"/>
-      <c r="C32" s="17">
+      <c r="B32" s="7"/>
+      <c r="C32" s="9">
         <v>150</v>
       </c>
-      <c r="D32" s="27"/>
-      <c r="E32" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F32" s="15">
+      <c r="D32" s="7"/>
+      <c r="E32" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="10">
+      <c r="A33" s="6">
         <v>42896</v>
       </c>
-      <c r="B33" s="19"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="28">
+      <c r="B33" s="7"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="7">
         <v>40</v>
       </c>
-      <c r="E33" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="F33" s="19">
+      <c r="E33" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" s="7">
         <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="10">
+      <c r="A34" s="6">
         <v>42903</v>
       </c>
-      <c r="B34" s="22"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="26">
+      <c r="B34" s="7"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="7">
         <v>30</v>
       </c>
-      <c r="E34" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F34" s="22">
+      <c r="E34" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="7">
         <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="10">
+      <c r="A35" s="6">
         <v>42907</v>
       </c>
-      <c r="B35" s="19"/>
-      <c r="C35" s="13">
+      <c r="B35" s="7"/>
+      <c r="C35" s="9">
         <v>40</v>
       </c>
-      <c r="D35" s="19"/>
-      <c r="E35" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F35" s="19">
+      <c r="D35" s="7"/>
+      <c r="E35" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" s="7">
         <v>30</v>
       </c>
     </row>
+    <row r="39" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="40" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="43" t="s">
+      <c r="A40" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B40" s="43"/>
-      <c r="C40" s="43"/>
-      <c r="D40" s="43"/>
-      <c r="E40" s="43"/>
-      <c r="F40" s="43"/>
-    </row>
-    <row r="41" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+      <c r="B40" s="39"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="40"/>
+    </row>
+    <row r="41" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F41" s="1" t="s">
+      <c r="C41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F41" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="24">
+      <c r="A42" s="29">
         <v>42887</v>
       </c>
-      <c r="B42" s="11"/>
-      <c r="C42" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D42" s="29">
+      <c r="B42" s="22"/>
+      <c r="C42" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" s="33">
         <v>10000</v>
       </c>
-      <c r="E42" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="F42" s="11">
+      <c r="E42" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" s="31">
         <v>10000</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="5"/>
+      <c r="A43" s="10"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="11"/>
     </row>
     <row r="44" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="2"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="5"/>
+      <c r="A44" s="10"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="11"/>
     </row>
     <row r="45" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="5"/>
-    </row>
+      <c r="A45" s="10"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="11"/>
+    </row>
+    <row r="49" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="50" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="43" t="s">
+      <c r="A50" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B50" s="43"/>
-      <c r="C50" s="43"/>
-      <c r="D50" s="43"/>
-      <c r="E50" s="43"/>
-      <c r="F50" s="43"/>
-    </row>
-    <row r="51" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+      <c r="B50" s="39"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="39"/>
+      <c r="F50" s="40"/>
+    </row>
+    <row r="51" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F51" s="1" t="s">
+      <c r="C51" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F51" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="10">
+      <c r="A52" s="29">
         <v>42916</v>
       </c>
-      <c r="B52" s="11"/>
-      <c r="C52" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D52" s="13"/>
-      <c r="E52" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="F52" s="11">
+      <c r="B52" s="22"/>
+      <c r="C52" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52" s="30"/>
+      <c r="E52" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F52" s="31">
         <v>3750</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="10">
+      <c r="A53" s="6">
         <v>42916</v>
       </c>
-      <c r="B53" s="15"/>
-      <c r="C53" s="16">
+      <c r="B53" s="7"/>
+      <c r="C53" s="8">
         <v>1200</v>
       </c>
-      <c r="D53" s="17"/>
-      <c r="E53" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F53" s="15">
+      <c r="D53" s="9"/>
+      <c r="E53" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F53" s="7">
         <v>2550</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="10">
+      <c r="A54" s="6">
         <v>42916</v>
       </c>
-      <c r="B54" s="19"/>
-      <c r="C54" s="20">
+      <c r="B54" s="7"/>
+      <c r="C54" s="8">
         <v>220</v>
       </c>
-      <c r="D54" s="13"/>
-      <c r="E54" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="F54" s="19">
+      <c r="D54" s="9"/>
+      <c r="E54" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F54" s="7">
         <v>2330</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="10">
+      <c r="A55" s="6">
         <v>42916</v>
       </c>
-      <c r="B55" s="22"/>
-      <c r="C55" s="16">
+      <c r="B55" s="7"/>
+      <c r="C55" s="8">
         <v>175</v>
       </c>
-      <c r="D55" s="17"/>
-      <c r="E55" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F55" s="22">
+      <c r="D55" s="9"/>
+      <c r="E55" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F55" s="7">
         <v>2155</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="10">
+      <c r="A56" s="6">
         <v>42916</v>
       </c>
-      <c r="B56" s="19"/>
-      <c r="C56" s="20">
+      <c r="B56" s="7"/>
+      <c r="C56" s="8">
         <v>50</v>
       </c>
-      <c r="D56" s="13"/>
-      <c r="E56" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="F56" s="19">
+      <c r="D56" s="9"/>
+      <c r="E56" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F56" s="7">
         <v>2105</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="24">
+      <c r="A57" s="6">
         <v>42916</v>
       </c>
-      <c r="B57" s="11"/>
-      <c r="C57" s="12">
+      <c r="B57" s="7"/>
+      <c r="C57" s="8">
         <v>700</v>
       </c>
-      <c r="D57" s="25"/>
-      <c r="E57" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="F57" s="11">
+      <c r="D57" s="9"/>
+      <c r="E57" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F57" s="7">
         <v>1405</v>
       </c>
     </row>
+    <row r="61" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="62" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="43" t="s">
+      <c r="A62" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="B62" s="43"/>
-      <c r="C62" s="43"/>
-      <c r="D62" s="43"/>
-      <c r="E62" s="43"/>
-      <c r="F62" s="43"/>
-    </row>
-    <row r="63" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
+      <c r="B62" s="39"/>
+      <c r="C62" s="39"/>
+      <c r="D62" s="39"/>
+      <c r="E62" s="39"/>
+      <c r="F62" s="40"/>
+    </row>
+    <row r="63" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F63" s="1" t="s">
+      <c r="C63" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F63" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="24">
+      <c r="A64" s="29">
         <v>42916</v>
       </c>
-      <c r="B64" s="11"/>
-      <c r="C64" s="12">
+      <c r="B64" s="22"/>
+      <c r="C64" s="23">
         <v>700</v>
       </c>
-      <c r="D64" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="E64" s="14">
+      <c r="D64" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E64" s="25">
         <v>700</v>
       </c>
-      <c r="F64" s="11" t="s">
+      <c r="F64" s="31" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="31">
+      <c r="A65" s="6">
         <v>42916</v>
       </c>
-      <c r="B65" s="32"/>
-      <c r="C65" s="20"/>
-      <c r="D65" s="30">
+      <c r="B65" s="7"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="9">
         <v>700</v>
       </c>
-      <c r="E65" s="33">
+      <c r="E65" s="6">
         <v>0</v>
       </c>
-      <c r="F65" s="32" t="s">
-        <v>15</v>
-      </c>
-    </row>
+      <c r="F65" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="70" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="43" t="s">
+      <c r="A70" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B70" s="43"/>
-      <c r="C70" s="43"/>
-      <c r="D70" s="43"/>
-      <c r="E70" s="43"/>
-      <c r="F70" s="43"/>
-    </row>
-    <row r="71" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
+      <c r="B70" s="39"/>
+      <c r="C70" s="39"/>
+      <c r="D70" s="39"/>
+      <c r="E70" s="39"/>
+      <c r="F70" s="40"/>
+    </row>
+    <row r="71" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C71" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F71" s="1" t="s">
+      <c r="C71" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F71" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="24">
+      <c r="A72" s="29">
         <v>42891</v>
       </c>
-      <c r="B72" s="11"/>
-      <c r="C72" s="34"/>
-      <c r="D72" s="12">
+      <c r="B72" s="22"/>
+      <c r="C72" s="24"/>
+      <c r="D72" s="23">
         <v>200</v>
       </c>
-      <c r="E72" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="F72" s="34">
+      <c r="E72" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="F72" s="35">
         <v>200</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="36">
+      <c r="A73" s="6">
         <v>42892</v>
       </c>
-      <c r="B73" s="15"/>
-      <c r="C73" s="37"/>
-      <c r="D73" s="16">
+      <c r="B73" s="7"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="8">
         <v>250</v>
       </c>
-      <c r="E73" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="F73" s="37">
+      <c r="E73" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F73" s="9">
         <v>450</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="10">
+      <c r="A74" s="6">
         <v>42895</v>
       </c>
-      <c r="B74" s="19"/>
-      <c r="C74" s="39"/>
-      <c r="D74" s="20">
+      <c r="B74" s="7"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="8">
         <v>450</v>
       </c>
-      <c r="E74" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="F74" s="39">
+      <c r="E74" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F74" s="9">
         <v>900</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="40">
+      <c r="A75" s="6">
         <v>42902</v>
       </c>
-      <c r="B75" s="22"/>
-      <c r="C75" s="37"/>
-      <c r="D75" s="16">
+      <c r="B75" s="7"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="8">
         <v>500</v>
       </c>
-      <c r="E75" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="F75" s="37">
+      <c r="E75" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F75" s="9">
         <v>1400</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="10">
+      <c r="A76" s="6">
         <v>42910</v>
       </c>
-      <c r="B76" s="19"/>
-      <c r="C76" s="39"/>
-      <c r="D76" s="20">
+      <c r="B76" s="7"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="8">
         <v>750</v>
       </c>
-      <c r="E76" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="F76" s="39">
+      <c r="E76" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F76" s="9">
         <v>2150</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="24">
+      <c r="A77" s="6">
         <v>42915</v>
       </c>
-      <c r="B77" s="11"/>
-      <c r="C77" s="34"/>
-      <c r="D77" s="12">
+      <c r="B77" s="7"/>
+      <c r="C77" s="9"/>
+      <c r="D77" s="8">
         <v>1600</v>
       </c>
-      <c r="E77" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="F77" s="34">
+      <c r="E77" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F77" s="9">
         <v>3750</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="24">
+      <c r="A78" s="6">
         <v>42916</v>
       </c>
-      <c r="B78" s="11"/>
-      <c r="C78" s="34">
+      <c r="B78" s="7"/>
+      <c r="C78" s="9">
         <v>3750</v>
       </c>
-      <c r="D78" s="12"/>
-      <c r="E78" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="F78" s="34">
+      <c r="D78" s="8"/>
+      <c r="E78" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F78" s="9">
         <v>0</v>
       </c>
     </row>
+    <row r="82" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="83" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="43" t="s">
+      <c r="A83" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="B83" s="43"/>
-      <c r="C83" s="43"/>
-      <c r="D83" s="43"/>
-      <c r="E83" s="43"/>
-      <c r="F83" s="43"/>
-    </row>
-    <row r="84" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
+      <c r="B83" s="39"/>
+      <c r="C83" s="39"/>
+      <c r="D83" s="39"/>
+      <c r="E83" s="39"/>
+      <c r="F83" s="40"/>
+    </row>
+    <row r="84" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B84" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C84" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F84" s="1" t="s">
+      <c r="C84" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F84" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="24">
+      <c r="A85" s="29">
         <v>42899</v>
       </c>
-      <c r="B85" s="11"/>
-      <c r="C85" s="34">
+      <c r="B85" s="22"/>
+      <c r="C85" s="24">
         <v>600</v>
       </c>
-      <c r="D85" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="E85" s="14">
+      <c r="D85" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E85" s="25">
         <v>600</v>
       </c>
-      <c r="F85" s="5"/>
+      <c r="F85" s="26"/>
     </row>
     <row r="86" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="36">
+      <c r="A86" s="6">
         <v>42913</v>
       </c>
-      <c r="B86" s="15"/>
-      <c r="C86" s="37">
+      <c r="B86" s="7"/>
+      <c r="C86" s="9">
         <v>600</v>
       </c>
-      <c r="D86" s="15"/>
-      <c r="E86" s="18">
+      <c r="D86" s="7"/>
+      <c r="E86" s="6">
         <v>1200</v>
       </c>
-      <c r="F86" s="5"/>
+      <c r="F86" s="11"/>
     </row>
     <row r="87" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="10">
+      <c r="A87" s="6">
         <v>42916</v>
       </c>
-      <c r="B87" s="19"/>
-      <c r="C87" s="39"/>
-      <c r="D87" s="32">
+      <c r="B87" s="7"/>
+      <c r="C87" s="9"/>
+      <c r="D87" s="7">
         <v>1200</v>
       </c>
-      <c r="E87" s="21">
+      <c r="E87" s="6">
         <v>0</v>
       </c>
-      <c r="F87" s="5"/>
-    </row>
+      <c r="F87" s="11"/>
+    </row>
+    <row r="91" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="92" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="43" t="s">
+      <c r="A92" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B92" s="43"/>
-      <c r="C92" s="43"/>
-      <c r="D92" s="43"/>
-      <c r="E92" s="43"/>
-      <c r="F92" s="43"/>
-    </row>
-    <row r="93" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
+      <c r="B92" s="39"/>
+      <c r="C92" s="39"/>
+      <c r="D92" s="39"/>
+      <c r="E92" s="39"/>
+      <c r="F92" s="40"/>
+    </row>
+    <row r="93" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B93" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C93" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F93" s="1" t="s">
+      <c r="C93" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F93" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="24">
+      <c r="A94" s="29">
         <v>42888</v>
       </c>
-      <c r="B94" s="11"/>
-      <c r="C94" s="12">
+      <c r="B94" s="22"/>
+      <c r="C94" s="23">
         <v>150</v>
       </c>
-      <c r="D94" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="E94" s="14">
+      <c r="D94" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E94" s="25">
         <v>150</v>
       </c>
-      <c r="F94" s="5"/>
+      <c r="F94" s="26"/>
     </row>
     <row r="95" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="36">
+      <c r="A95" s="6">
         <v>42896</v>
       </c>
-      <c r="B95" s="15"/>
-      <c r="C95" s="16">
+      <c r="B95" s="7"/>
+      <c r="C95" s="8">
         <v>40</v>
       </c>
-      <c r="D95" s="37"/>
-      <c r="E95" s="18">
+      <c r="D95" s="9"/>
+      <c r="E95" s="6">
         <v>190</v>
       </c>
-      <c r="F95" s="5"/>
+      <c r="F95" s="11"/>
     </row>
     <row r="96" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="10">
+      <c r="A96" s="6">
         <v>42903</v>
       </c>
-      <c r="B96" s="19"/>
-      <c r="C96" s="20">
+      <c r="B96" s="7"/>
+      <c r="C96" s="8">
         <v>30</v>
       </c>
-      <c r="D96" s="39"/>
-      <c r="E96" s="21">
+      <c r="D96" s="9"/>
+      <c r="E96" s="6">
         <v>220</v>
       </c>
-      <c r="F96" s="5"/>
+      <c r="F96" s="11"/>
     </row>
     <row r="97" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="42">
+      <c r="A97" s="6">
         <v>42916</v>
       </c>
-      <c r="B97" s="19"/>
-      <c r="C97" s="20"/>
-      <c r="D97" s="39">
+      <c r="B97" s="7"/>
+      <c r="C97" s="8"/>
+      <c r="D97" s="9">
         <v>220</v>
       </c>
-      <c r="E97" s="21">
+      <c r="E97" s="6">
         <v>0</v>
       </c>
-      <c r="F97" s="5"/>
-    </row>
+      <c r="F97" s="11"/>
+    </row>
+    <row r="101" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="102" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="43" t="s">
+      <c r="A102" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B102" s="43"/>
-      <c r="C102" s="43"/>
-      <c r="D102" s="43"/>
-      <c r="E102" s="43"/>
-      <c r="F102" s="43"/>
-    </row>
-    <row r="103" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
+      <c r="B102" s="39"/>
+      <c r="C102" s="39"/>
+      <c r="D102" s="39"/>
+      <c r="E102" s="39"/>
+      <c r="F102" s="40"/>
+    </row>
+    <row r="103" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B103" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C103" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F103" s="1" t="s">
+      <c r="C103" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F103" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="24">
+      <c r="A104" s="37">
         <v>42911</v>
       </c>
-      <c r="B104" s="11"/>
-      <c r="C104" s="12">
+      <c r="B104" s="16"/>
+      <c r="C104" s="17">
         <v>175</v>
       </c>
-      <c r="D104" s="30"/>
-      <c r="E104" s="14">
+      <c r="D104" s="20"/>
+      <c r="E104" s="36">
         <v>175</v>
       </c>
-      <c r="F104" s="11" t="s">
+      <c r="F104" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="31">
+      <c r="A105" s="6">
         <v>42916</v>
       </c>
-      <c r="B105" s="32"/>
-      <c r="C105" s="20"/>
-      <c r="D105" s="30">
+      <c r="B105" s="7"/>
+      <c r="C105" s="8"/>
+      <c r="D105" s="9">
         <v>175</v>
       </c>
-      <c r="E105" s="33">
+      <c r="E105" s="6">
         <v>0</v>
       </c>
-      <c r="F105" s="32" t="s">
-        <v>15</v>
-      </c>
-    </row>
+      <c r="F105" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="110" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="43" t="s">
+      <c r="A110" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B110" s="43"/>
-      <c r="C110" s="43"/>
-      <c r="D110" s="43"/>
-      <c r="E110" s="43"/>
-      <c r="F110" s="43"/>
-    </row>
-    <row r="111" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="1" t="s">
+      <c r="B110" s="39"/>
+      <c r="C110" s="39"/>
+      <c r="D110" s="39"/>
+      <c r="E110" s="39"/>
+      <c r="F110" s="40"/>
+    </row>
+    <row r="111" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="B111" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C111" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F111" s="1" t="s">
+      <c r="C111" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F111" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="24">
+      <c r="A112" s="37">
         <v>42887</v>
       </c>
-      <c r="B112" s="11"/>
-      <c r="C112" s="12">
+      <c r="B112" s="16"/>
+      <c r="C112" s="17">
         <v>50</v>
       </c>
-      <c r="D112" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="E112" s="14">
+      <c r="D112" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E112" s="19">
         <v>50</v>
       </c>
-      <c r="F112" s="11" t="s">
+      <c r="F112" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="36">
+      <c r="A113" s="6">
         <v>42916</v>
       </c>
-      <c r="B113" s="15"/>
-      <c r="C113" s="16"/>
-      <c r="D113" s="35">
+      <c r="B113" s="7"/>
+      <c r="C113" s="8"/>
+      <c r="D113" s="9">
         <v>50</v>
       </c>
-      <c r="E113" s="18">
+      <c r="E113" s="28">
         <v>0</v>
       </c>
-      <c r="F113" s="15" t="s">
+      <c r="F113" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="10">
+      <c r="A114" s="6">
         <v>42938</v>
       </c>
-      <c r="B114" s="19"/>
-      <c r="C114" s="20">
+      <c r="B114" s="7"/>
+      <c r="C114" s="8">
         <v>20</v>
       </c>
-      <c r="D114" s="39"/>
-      <c r="E114" s="10">
+      <c r="D114" s="9"/>
+      <c r="E114" s="6">
         <v>20</v>
       </c>
-      <c r="F114" s="19" t="s">
+      <c r="F114" s="7" t="s">
         <v>15</v>
       </c>
     </row>
